--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_2_27.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_2_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1772790.802457081</v>
+        <v>1766928.482421901</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516699</v>
+        <v>2280223.65389273</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9096858.996937817</v>
+        <v>9095679.038156979</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>261.0583310175971</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>9.031127956876844</v>
+        <v>223.0267647241949</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>367.2890446813954</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>147.295474296812</v>
+        <v>50.64353720722485</v>
       </c>
       <c r="U3" t="n">
         <v>207.9625118881446</v>
@@ -817,28 +817,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>100.3434053864688</v>
       </c>
       <c r="E4" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>66.46091713003547</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -905,16 +905,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>190.5504566406858</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>64.57511521371538</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>367.2890446813954</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -1026,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>147.295474296812</v>
+        <v>50.64353720722485</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1060,16 +1060,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>159.3149947016329</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>30.441854973074</v>
       </c>
       <c r="X7" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1133,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>225.1394836410446</v>
       </c>
       <c r="F8" t="n">
-        <v>112.1951613063459</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1342,10 +1342,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>66.03149870010068</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>116.876383545772</v>
       </c>
       <c r="V10" t="n">
         <v>263.319551727384</v>
@@ -1354,7 +1354,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1373,10 +1373,10 @@
         <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E11" t="n">
-        <v>327.4793772398889</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>341.6471816905901</v>
@@ -1385,10 +1385,10 @@
         <v>337.9528155621449</v>
       </c>
       <c r="H11" t="n">
-        <v>149.3750809841013</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372786</v>
+        <v>47.62438256825796</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362799</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214455</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087848</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X11" t="n">
         <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
-        <v>321.4474895938729</v>
+        <v>321.447489593873</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>112.2776261096564</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993872</v>
+        <v>97.42475435993876</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177844</v>
+        <v>66.20922171551402</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465755</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442482</v>
+        <v>84.67436304442487</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681696</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>82.84545313338904</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456093</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901685</v>
+        <v>51.58366707901689</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>152.3589838451338</v>
+        <v>162.2835489187163</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>211.5060914457862</v>
       </c>
       <c r="V13" t="n">
         <v>192.2412393326521</v>
@@ -1591,10 +1591,10 @@
         <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
-        <v>160.6612066001148</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767911</v>
+        <v>149.8026281767912</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C14" t="n">
         <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
-        <v>310.5084051007669</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>327.4793772398889</v>
+        <v>327.479377239889</v>
       </c>
       <c r="F14" t="n">
-        <v>341.64718169059</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G14" t="n">
-        <v>337.9528155621448</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344422</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372783</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362796</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214455</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750154</v>
+        <v>77.52574824189304</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087848</v>
+        <v>267.6074288087849</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X14" t="n">
-        <v>46.87713095497014</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>321.4474895938729</v>
+        <v>321.447489593873</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096563</v>
+        <v>112.2776261096564</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993869</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177841</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465753</v>
+        <v>82.9249116246576</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442479</v>
+        <v>84.67436304442487</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>95.493200966817</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338897</v>
+        <v>82.84545313338904</v>
       </c>
       <c r="I16" t="n">
-        <v>60.6851687145609</v>
+        <v>60.68516871456097</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>51.58366707901689</v>
       </c>
       <c r="S16" t="n">
-        <v>129.7096105845441</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
-        <v>135.2643686634935</v>
+        <v>162.2835489187163</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>6.327175630658975</v>
       </c>
       <c r="V16" t="n">
-        <v>192.241239332652</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W16" t="n">
         <v>209.4187856534022</v>
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767911</v>
+        <v>149.8026281767912</v>
       </c>
     </row>
     <row r="17">
@@ -1844,25 +1844,25 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C17" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
         <v>251.2267481799146</v>
       </c>
       <c r="E17" t="n">
-        <v>268.1977203190366</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F17" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G17" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875521</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277564</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059319</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U17" t="n">
-        <v>122.8352329541631</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V17" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W17" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X17" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y17" t="n">
-        <v>262.1658326730206</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880397</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908638</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D19" t="n">
-        <v>23.7168126509261</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380521</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357248</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596462</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253666</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708589</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369182</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U19" t="n">
-        <v>152.2244345249338</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V19" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325499</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593878</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="20">
@@ -2081,25 +2081,25 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C20" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
         <v>251.2267481799146</v>
       </c>
       <c r="E20" t="n">
-        <v>268.1977203190366</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F20" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G20" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875521</v>
+        <v>6.593776422876573</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277564</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059319</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U20" t="n">
-        <v>122.8352329541606</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V20" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W20" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X20" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.1658326730206</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880397</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908638</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D22" t="n">
-        <v>23.7168126509261</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380521</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357248</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596462</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253666</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708589</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369182</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U22" t="n">
-        <v>152.2244345249338</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V22" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325499</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X22" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593878</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="23">
@@ -2315,16 +2315,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C23" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E23" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F23" t="n">
         <v>282.3655247697376</v>
@@ -2333,10 +2333,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875379</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,16 +2366,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.4884501927755</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059305</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U23" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V23" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W23" t="n">
         <v>236.929075365811</v>
@@ -2384,7 +2384,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y23" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880383</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908623</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092596</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380507</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357234</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596447</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253652</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708446</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369168</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T25" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U25" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V25" t="n">
         <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593863</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414333</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404346</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007178</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035419</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219391</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507302</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484029</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723243</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380447</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I28" t="n">
-        <v>37.7722066349764</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943232</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.153340954212</v>
+        <v>283.709878481573</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820278</v>
+        <v>276.4638267093887</v>
       </c>
       <c r="D32" t="n">
-        <v>275.250260195428</v>
+        <v>268.806797722789</v>
       </c>
       <c r="E32" t="n">
-        <v>292.22123233455</v>
+        <v>285.7777698619109</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852511</v>
+        <v>299.9455743126121</v>
       </c>
       <c r="G32" t="n">
-        <v>302.694670656806</v>
+        <v>296.2512081841669</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291033</v>
+        <v>208.0623001564643</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838894</v>
+        <v>24.17382596574986</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828906</v>
+        <v>52.06849973564998</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161066</v>
+        <v>108.4856766434675</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696765</v>
+        <v>140.4152824970374</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034459</v>
+        <v>225.9058214308068</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813245</v>
+        <v>254.5091249086855</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162028</v>
+        <v>272.7781592435638</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.189344688534</v>
+        <v>279.7458822158949</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431739</v>
+        <v>70.5760187316783</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459979</v>
+        <v>55.72314698196071</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643952</v>
+        <v>41.29686219380044</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931863</v>
+        <v>41.22330424667955</v>
       </c>
       <c r="F34" t="n">
-        <v>49.4162181390859</v>
+        <v>42.97275566644682</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147803</v>
+        <v>53.79159358883895</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822805008</v>
+        <v>41.14384575541099</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922201</v>
+        <v>18.98356133658292</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367792</v>
+        <v>9.882059701038841</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920524</v>
+        <v>88.00800320656616</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133773</v>
+        <v>120.5819415407382</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404472</v>
+        <v>169.8044840678081</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273131</v>
+        <v>150.5396319546741</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480633</v>
+        <v>167.7171782754242</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947758</v>
+        <v>118.9595992221368</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714522</v>
+        <v>108.1010207988131</v>
       </c>
     </row>
     <row r="35">
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386987</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C38" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799147</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E38" t="n">
-        <v>268.1977203190366</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F38" t="n">
-        <v>282.3655247697378</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G38" t="n">
-        <v>278.6711586412926</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.48225061359</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422873169</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.4884501927757</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059325</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U38" t="n">
-        <v>122.8352329541631</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V38" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W38" t="n">
-        <v>236.9290753658112</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X38" t="n">
-        <v>255.1981097006895</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y38" t="n">
-        <v>262.1658326730206</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880403</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908643</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092616</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380527</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357254</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596467</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253672</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708645</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369188</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T40" t="n">
-        <v>103.001891997864</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U40" t="n">
-        <v>152.2244345249338</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V40" t="n">
-        <v>132.9595824117998</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325499</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X40" t="n">
-        <v>101.3795496792625</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593883</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="41">
@@ -3752,13 +3752,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G41" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H41" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U41" t="n">
         <v>122.835232954163</v>
@@ -3800,10 +3800,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W41" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X41" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y41" t="n">
         <v>262.1658326730205</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F43" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H43" t="n">
-        <v>23.56379621253657</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T43" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U43" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V43" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W43" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X43" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="44">
@@ -3989,13 +3989,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G44" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H44" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,22 +4025,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U44" t="n">
-        <v>122.8352329541635</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V44" t="n">
         <v>208.3257718879324</v>
       </c>
       <c r="W44" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X44" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y44" t="n">
         <v>262.1658326730205</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F46" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H46" t="n">
-        <v>23.56379621253657</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U46" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V46" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W46" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X46" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>860.6799475567293</v>
+        <v>683.6772455538303</v>
       </c>
       <c r="C2" t="n">
-        <v>467.5044460596599</v>
+        <v>683.6772455538303</v>
       </c>
       <c r="D2" t="n">
-        <v>203.8091622035011</v>
+        <v>683.6772455538303</v>
       </c>
       <c r="E2" t="n">
-        <v>203.8091622035011</v>
+        <v>683.6772455538303</v>
       </c>
       <c r="F2" t="n">
-        <v>190.9551277738829</v>
+        <v>266.7828070838081</v>
       </c>
       <c r="G2" t="n">
-        <v>181.8327763022902</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="H2" t="n">
-        <v>181.8327763022902</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="J2" t="n">
-        <v>188.1454323035831</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="K2" t="n">
-        <v>547.1277883310449</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="L2" t="n">
-        <v>1022.086525067011</v>
+        <v>588.487006042435</v>
       </c>
       <c r="M2" t="n">
-        <v>1022.086525067011</v>
+        <v>588.487006042435</v>
       </c>
       <c r="N2" t="n">
-        <v>1549.897808704473</v>
+        <v>1102.089684652123</v>
       </c>
       <c r="O2" t="n">
-        <v>1989.937409596801</v>
+        <v>1542.129285544452</v>
       </c>
       <c r="P2" t="n">
-        <v>1989.937409596801</v>
+        <v>1890.316777675974</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R2" t="n">
-        <v>2136.790056023272</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="S2" t="n">
-        <v>1970.276500964322</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="T2" t="n">
-        <v>1970.276500964322</v>
+        <v>1851.661735376339</v>
       </c>
       <c r="U2" t="n">
-        <v>1970.276500964322</v>
+        <v>1851.661735376339</v>
       </c>
       <c r="V2" t="n">
-        <v>1628.169691667841</v>
+        <v>1851.661735376339</v>
       </c>
       <c r="W2" t="n">
-        <v>1257.170656636128</v>
+        <v>1480.662700344626</v>
       </c>
       <c r="X2" t="n">
-        <v>1257.170656636128</v>
+        <v>1480.662700344626</v>
       </c>
       <c r="Y2" t="n">
-        <v>860.6799475567293</v>
+        <v>1084.171991265227</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>842.8616425347859</v>
+        <v>840.8692298963695</v>
       </c>
       <c r="C3" t="n">
-        <v>692.2074120948781</v>
+        <v>690.2149994564617</v>
       </c>
       <c r="D3" t="n">
-        <v>562.1184447163585</v>
+        <v>560.126032077942</v>
       </c>
       <c r="E3" t="n">
-        <v>425.6719538272462</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F3" t="n">
-        <v>301.240147710378</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822425</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284341</v>
+        <v>90.89050074442684</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144824</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="K3" t="n">
-        <v>476.3497876767088</v>
+        <v>361.2423928185649</v>
       </c>
       <c r="L3" t="n">
-        <v>959.915873575022</v>
+        <v>844.8084787168782</v>
       </c>
       <c r="M3" t="n">
-        <v>959.915873575022</v>
+        <v>844.8084787168782</v>
       </c>
       <c r="N3" t="n">
-        <v>1018.276226875481</v>
+        <v>1155.938290490836</v>
       </c>
       <c r="O3" t="n">
-        <v>1534.796509466462</v>
+        <v>1669.540969100525</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.417878182859</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R3" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="S3" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="T3" t="n">
-        <v>2025.999662367233</v>
+        <v>2024.007249728816</v>
       </c>
       <c r="U3" t="n">
-        <v>1815.936519045874</v>
+        <v>1813.944106407458</v>
       </c>
       <c r="V3" t="n">
-        <v>1593.396517416941</v>
+        <v>1591.404104778525</v>
       </c>
       <c r="W3" t="n">
-        <v>1363.279271550228</v>
+        <v>1361.286858911812</v>
       </c>
       <c r="X3" t="n">
-        <v>1173.97219390024</v>
+        <v>1171.979781261824</v>
       </c>
       <c r="Y3" t="n">
-        <v>994.6579769757473</v>
+        <v>992.6655643373308</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>369.2595894695633</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="C4" t="n">
-        <v>199.0544715355525</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="D4" t="n">
-        <v>199.0544715355525</v>
+        <v>1973.805362679075</v>
       </c>
       <c r="E4" t="n">
-        <v>43.49565939475499</v>
+        <v>1818.246550538277</v>
       </c>
       <c r="F4" t="n">
-        <v>43.49565939475499</v>
+        <v>1660.92061575125</v>
       </c>
       <c r="G4" t="n">
-        <v>43.49565939475499</v>
+        <v>1492.666561850696</v>
       </c>
       <c r="H4" t="n">
-        <v>43.49565939475499</v>
+        <v>1337.18801081219</v>
       </c>
       <c r="I4" t="n">
-        <v>43.49565939475499</v>
+        <v>1204.093585449267</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475499</v>
+        <v>1173.715315275369</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046969</v>
+        <v>1255.550356385311</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>1419.677996259111</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167607</v>
+        <v>1605.969574597375</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>1789.159208628584</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>1951.863975670292</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>2071.740141446871</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="S4" t="n">
-        <v>944.9426819363074</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="T4" t="n">
-        <v>877.810442411019</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="U4" t="n">
-        <v>592.3716506529199</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="V4" t="n">
-        <v>592.3716506529199</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="W4" t="n">
-        <v>592.3716506529199</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="X4" t="n">
-        <v>592.3716506529199</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="Y4" t="n">
-        <v>369.2595894695633</v>
+        <v>2075.162337816922</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1738.556545601274</v>
+        <v>645.6843318393521</v>
       </c>
       <c r="C5" t="n">
-        <v>1738.556545601274</v>
+        <v>645.6843318393521</v>
       </c>
       <c r="D5" t="n">
-        <v>1738.556545601274</v>
+        <v>645.6843318393521</v>
       </c>
       <c r="E5" t="n">
-        <v>1335.973020717819</v>
+        <v>243.1008069558966</v>
       </c>
       <c r="F5" t="n">
-        <v>919.0785822477965</v>
+        <v>50.62559822793121</v>
       </c>
       <c r="G5" t="n">
-        <v>505.9158267357996</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="H5" t="n">
-        <v>181.8327763022902</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="J5" t="n">
-        <v>188.1454323035831</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="K5" t="n">
-        <v>267.2051172401441</v>
+        <v>400.4856027838003</v>
       </c>
       <c r="L5" t="n">
-        <v>760.525408958673</v>
+        <v>893.8058945023291</v>
       </c>
       <c r="M5" t="n">
-        <v>1298.784193968766</v>
+        <v>893.8058945023291</v>
       </c>
       <c r="N5" t="n">
-        <v>1826.595477606228</v>
+        <v>1286.935244793072</v>
       </c>
       <c r="O5" t="n">
-        <v>1826.595477606228</v>
+        <v>1726.9748456854</v>
       </c>
       <c r="P5" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R5" t="n">
-        <v>2174.78296973775</v>
+        <v>2037.169424102444</v>
       </c>
       <c r="S5" t="n">
-        <v>2174.78296973775</v>
+        <v>2037.169424102444</v>
       </c>
       <c r="T5" t="n">
-        <v>2174.78296973775</v>
+        <v>1813.66882166186</v>
       </c>
       <c r="U5" t="n">
-        <v>2174.78296973775</v>
+        <v>1813.66882166186</v>
       </c>
       <c r="V5" t="n">
-        <v>2109.555580632987</v>
+        <v>1813.66882166186</v>
       </c>
       <c r="W5" t="n">
-        <v>1738.556545601274</v>
+        <v>1442.669786630148</v>
       </c>
       <c r="X5" t="n">
-        <v>1738.556545601274</v>
+        <v>1442.669786630148</v>
       </c>
       <c r="Y5" t="n">
-        <v>1738.556545601274</v>
+        <v>1046.179077550749</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842.8616425347859</v>
+        <v>840.8692298963695</v>
       </c>
       <c r="C6" t="n">
-        <v>692.2074120948781</v>
+        <v>690.2149994564617</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163585</v>
+        <v>560.126032077942</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272462</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F6" t="n">
-        <v>301.240147710378</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822425</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284341</v>
+        <v>90.89050074442684</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144824</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K6" t="n">
-        <v>476.3497876767088</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L6" t="n">
-        <v>959.915873575022</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="M6" t="n">
-        <v>959.915873575022</v>
+        <v>1155.938290490836</v>
       </c>
       <c r="N6" t="n">
-        <v>1423.897595591878</v>
+        <v>1155.938290490836</v>
       </c>
       <c r="O6" t="n">
-        <v>1940.417878182859</v>
+        <v>1669.540969100525</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182859</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R6" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="S6" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="T6" t="n">
-        <v>2025.999662367233</v>
+        <v>2024.007249728816</v>
       </c>
       <c r="U6" t="n">
-        <v>1815.936519045874</v>
+        <v>1813.944106407458</v>
       </c>
       <c r="V6" t="n">
-        <v>1593.396517416941</v>
+        <v>1591.404104778525</v>
       </c>
       <c r="W6" t="n">
-        <v>1363.279271550228</v>
+        <v>1361.286858911812</v>
       </c>
       <c r="X6" t="n">
-        <v>1173.97219390024</v>
+        <v>1171.979781261824</v>
       </c>
       <c r="Y6" t="n">
-        <v>994.6579769757473</v>
+        <v>992.6655643373308</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>43.49565939475499</v>
+        <v>678.1205986232235</v>
       </c>
       <c r="C7" t="n">
-        <v>43.49565939475499</v>
+        <v>678.1205986232235</v>
       </c>
       <c r="D7" t="n">
-        <v>43.49565939475499</v>
+        <v>678.1205986232235</v>
       </c>
       <c r="E7" t="n">
-        <v>43.49565939475499</v>
+        <v>522.561786482426</v>
       </c>
       <c r="F7" t="n">
-        <v>43.49565939475499</v>
+        <v>365.2358516953989</v>
       </c>
       <c r="G7" t="n">
-        <v>43.49565939475499</v>
+        <v>196.9817977948445</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167607</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="U7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="V7" t="n">
-        <v>784.0184448639509</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="W7" t="n">
-        <v>500.6880427951286</v>
+        <v>912.2009208402404</v>
       </c>
       <c r="X7" t="n">
-        <v>266.6077205781116</v>
+        <v>678.1205986232235</v>
       </c>
       <c r="Y7" t="n">
-        <v>43.49565939475499</v>
+        <v>678.1205986232235</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>562.9392688341916</v>
+        <v>1567.203951264046</v>
       </c>
       <c r="C8" t="n">
-        <v>169.7637673371221</v>
+        <v>1567.203951264046</v>
       </c>
       <c r="D8" t="n">
-        <v>169.7637673371221</v>
+        <v>1567.203951264046</v>
       </c>
       <c r="E8" t="n">
-        <v>169.7637673371221</v>
+        <v>1339.790331424607</v>
       </c>
       <c r="F8" t="n">
-        <v>56.43532157313638</v>
+        <v>922.895892954585</v>
       </c>
       <c r="G8" t="n">
-        <v>47.31297010154361</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
@@ -4805,49 +4805,49 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K8" t="n">
-        <v>358.4764287842802</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L8" t="n">
-        <v>851.7967205028091</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M8" t="n">
-        <v>1397.79762054739</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N8" t="n">
-        <v>1925.608904184852</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="O8" t="n">
-        <v>2365.64850507718</v>
+        <v>1885.656118784443</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.64850507718</v>
+        <v>2233.843610915965</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2199.134950018231</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T8" t="n">
-        <v>1975.634347577648</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="U8" t="n">
-        <v>1719.881618012246</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="V8" t="n">
-        <v>1719.881618012246</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="W8" t="n">
-        <v>1348.882582980534</v>
+        <v>1956.65655633099</v>
       </c>
       <c r="X8" t="n">
-        <v>959.4299779135905</v>
+        <v>1567.203951264046</v>
       </c>
       <c r="Y8" t="n">
-        <v>562.9392688341916</v>
+        <v>1567.203951264046</v>
       </c>
     </row>
     <row r="9">
@@ -4890,16 +4890,16 @@
         <v>643.9940382195844</v>
       </c>
       <c r="M9" t="n">
-        <v>1229.492043226187</v>
+        <v>643.9940382195844</v>
       </c>
       <c r="N9" t="n">
-        <v>1443.506853769802</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O9" t="n">
-        <v>1960.027136360783</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P9" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4990,16 +4990,16 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>882.0615091076409</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U10" t="n">
-        <v>596.6227173495417</v>
+        <v>830.7030395665587</v>
       </c>
       <c r="V10" t="n">
-        <v>330.643372170366</v>
+        <v>564.7236943873829</v>
       </c>
       <c r="W10" t="n">
-        <v>47.31297010154361</v>
+        <v>281.3932923185605</v>
       </c>
       <c r="X10" t="n">
         <v>47.31297010154361</v>
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1618.175009429187</v>
+        <v>1684.00006360671</v>
       </c>
       <c r="C11" t="n">
-        <v>1296.795783078311</v>
+        <v>1362.620837255835</v>
       </c>
       <c r="D11" t="n">
-        <v>1296.795783078311</v>
+        <v>1048.975983618697</v>
       </c>
       <c r="E11" t="n">
-        <v>966.0085333410493</v>
+        <v>1048.975983618697</v>
       </c>
       <c r="F11" t="n">
-        <v>620.9103700172211</v>
+        <v>703.8778202948688</v>
       </c>
       <c r="G11" t="n">
-        <v>279.5438896514181</v>
+        <v>362.5113399290659</v>
       </c>
       <c r="H11" t="n">
-        <v>128.6599694654568</v>
+        <v>110.2245646417504</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411553</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3011.239105293021</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T11" t="n">
-        <v>2859.534777998631</v>
+        <v>2954.252057911387</v>
       </c>
       <c r="U11" t="n">
-        <v>2859.534777998631</v>
+        <v>2954.252057911387</v>
       </c>
       <c r="V11" t="n">
-        <v>2589.224243848344</v>
+        <v>2954.252057911387</v>
       </c>
       <c r="W11" t="n">
-        <v>2589.224243848344</v>
+        <v>2655.049298025868</v>
       </c>
       <c r="X11" t="n">
-        <v>2271.567913927594</v>
+        <v>2337.392968105119</v>
       </c>
       <c r="Y11" t="n">
-        <v>1946.87347999439</v>
+        <v>2012.698534171913</v>
       </c>
     </row>
     <row r="12">
@@ -5127,13 +5127,13 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M12" t="n">
-        <v>1606.310991511064</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N12" t="n">
-        <v>1863.93438008877</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O12" t="n">
-        <v>2380.454662679751</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P12" t="n">
         <v>2380.454662679751</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.4129340497493</v>
+        <v>396.6179077579204</v>
       </c>
       <c r="C13" t="n">
-        <v>473.0040912619323</v>
+        <v>298.2090649701034</v>
       </c>
       <c r="D13" t="n">
-        <v>389.1672533106411</v>
+        <v>231.3310632372609</v>
       </c>
       <c r="E13" t="n">
-        <v>305.4047163160375</v>
+        <v>231.3310632372609</v>
       </c>
       <c r="F13" t="n">
-        <v>219.8750566752043</v>
+        <v>145.8014035964277</v>
       </c>
       <c r="G13" t="n">
-        <v>123.4172779208437</v>
+        <v>145.8014035964277</v>
       </c>
       <c r="H13" t="n">
-        <v>123.4172779208437</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>102.7129143774627</v>
+        <v>102.7129143774626</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581892</v>
+        <v>254.9154847581891</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027737</v>
+        <v>489.4106539027736</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118223</v>
+        <v>746.0697615118221</v>
       </c>
       <c r="N13" t="n">
         <v>999.626924813816</v>
@@ -5218,7 +5218,7 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q13" t="n">
-        <v>1496.732641814508</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="R13" t="n">
         <v>1444.627927593278</v>
@@ -5227,22 +5227,22 @@
         <v>1444.627927593278</v>
       </c>
       <c r="T13" t="n">
-        <v>1290.729964113345</v>
+        <v>1280.705150907706</v>
       </c>
       <c r="U13" t="n">
-        <v>1290.729964113345</v>
+        <v>1067.062634295801</v>
       </c>
       <c r="V13" t="n">
-        <v>1096.546894080363</v>
+        <v>872.879564262819</v>
       </c>
       <c r="W13" t="n">
-        <v>885.0127671577351</v>
+        <v>661.3454373401905</v>
       </c>
       <c r="X13" t="n">
-        <v>722.7287200869121</v>
+        <v>661.3454373401905</v>
       </c>
       <c r="Y13" t="n">
-        <v>571.4129340497493</v>
+        <v>510.0296513030278</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2033.222718167679</v>
+        <v>1653.037022769199</v>
       </c>
       <c r="C14" t="n">
-        <v>1711.843491816804</v>
+        <v>1331.657796418324</v>
       </c>
       <c r="D14" t="n">
-        <v>1398.198638179665</v>
+        <v>1331.657796418324</v>
       </c>
       <c r="E14" t="n">
-        <v>1067.411388442404</v>
+        <v>1000.870546681062</v>
       </c>
       <c r="F14" t="n">
-        <v>722.3132251185752</v>
+        <v>655.7723833572339</v>
       </c>
       <c r="G14" t="n">
-        <v>380.9467447527722</v>
+        <v>314.4059029914308</v>
       </c>
       <c r="H14" t="n">
-        <v>128.6599694654568</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3011.239105293021</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T14" t="n">
-        <v>2859.534777998631</v>
+        <v>2954.252057911387</v>
       </c>
       <c r="U14" t="n">
-        <v>2675.578323579424</v>
+        <v>2875.943221303414</v>
       </c>
       <c r="V14" t="n">
-        <v>2405.267789429136</v>
+        <v>2605.632687153126</v>
       </c>
       <c r="W14" t="n">
-        <v>2405.267789429136</v>
+        <v>2306.429927267608</v>
       </c>
       <c r="X14" t="n">
-        <v>2357.917152100884</v>
+        <v>2306.429927267608</v>
       </c>
       <c r="Y14" t="n">
-        <v>2033.222718167679</v>
+        <v>1981.735493334403</v>
       </c>
     </row>
     <row r="15">
@@ -5367,7 +5367,7 @@
         <v>1493.196009291336</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.973980501895</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O15" t="n">
         <v>2380.454662679751</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>558.6374311877007</v>
+        <v>472.8495292029535</v>
       </c>
       <c r="C16" t="n">
-        <v>460.2285883998839</v>
+        <v>472.8495292029535</v>
       </c>
       <c r="D16" t="n">
-        <v>376.3917504485926</v>
+        <v>472.8495292029535</v>
       </c>
       <c r="E16" t="n">
-        <v>292.629213453989</v>
+        <v>389.0869922083498</v>
       </c>
       <c r="F16" t="n">
-        <v>207.0995538131558</v>
+        <v>303.5573325675167</v>
       </c>
       <c r="G16" t="n">
-        <v>207.0995538131558</v>
+        <v>207.099553813156</v>
       </c>
       <c r="H16" t="n">
-        <v>123.4172779208437</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>102.7129143774627</v>
+        <v>102.7129143774626</v>
       </c>
       <c r="K16" t="n">
-        <v>254.915484758189</v>
+        <v>254.9154847581891</v>
       </c>
       <c r="L16" t="n">
         <v>489.4106539027734</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118222</v>
+        <v>746.0697615118221</v>
       </c>
       <c r="N16" t="n">
-        <v>999.626924813816</v>
+        <v>999.6269248138159</v>
       </c>
       <c r="O16" t="n">
-        <v>1232.699221126309</v>
+        <v>1232.699221126308</v>
       </c>
       <c r="P16" t="n">
         <v>1422.942916173672</v>
       </c>
       <c r="Q16" t="n">
-        <v>1496.732641814508</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="R16" t="n">
-        <v>1496.732641814508</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="S16" t="n">
-        <v>1365.712833143251</v>
+        <v>1313.608118922021</v>
       </c>
       <c r="T16" t="n">
-        <v>1229.082157725581</v>
+        <v>1149.685342236449</v>
       </c>
       <c r="U16" t="n">
-        <v>1229.082157725581</v>
+        <v>1143.294255740834</v>
       </c>
       <c r="V16" t="n">
-        <v>1034.899087692599</v>
+        <v>949.1111857078524</v>
       </c>
       <c r="W16" t="n">
-        <v>823.3649607699708</v>
+        <v>737.5770587852237</v>
       </c>
       <c r="X16" t="n">
-        <v>823.3649607699708</v>
+        <v>737.5770587852237</v>
       </c>
       <c r="Y16" t="n">
-        <v>672.0491747328081</v>
+        <v>586.2612727480609</v>
       </c>
     </row>
     <row r="17">
@@ -5498,16 +5498,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099311</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803425</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924231</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5540,10 +5540,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T17" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U17" t="n">
         <v>2855.219708188068</v>
@@ -5592,25 +5592,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K18" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L18" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M18" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N18" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O18" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P18" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.93197918856</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369576</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218807</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634917</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F19" t="n">
-        <v>123.915947958873</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G19" t="n">
-        <v>87.3386307407269</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462925</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
@@ -5689,34 +5689,34 @@
         <v>840.2677880990384</v>
       </c>
       <c r="P19" t="n">
-        <v>965.7235964838021</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.202162476282</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.202162476282</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S19" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918818</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161911</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194237</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330097</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984012</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974529</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C20" t="n">
-        <v>1352.560722599517</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D20" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F20" t="n">
         <v>542.6718405099318</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803433</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924231</v>
+        <v>68.77950792924338</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5771,28 +5771,28 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q20" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T20" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U20" t="n">
-        <v>2855.219708188069</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573996</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.467337224692</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X20" t="n">
-        <v>2147.691468840157</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
         <v>1882.877496443166</v>
@@ -5829,16 +5829,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K21" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L21" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M21" t="n">
-        <v>978.5393418843826</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N21" t="n">
         <v>1223.947919817482</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.93197918856</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369576</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218807</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634917</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F22" t="n">
-        <v>123.915947958873</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G22" t="n">
-        <v>87.3386307407269</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462925</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>161.4017547291065</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>243.2367958390484</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>407.3644357128481</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M22" t="n">
-        <v>593.6560140511122</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N22" t="n">
-        <v>776.8456480823213</v>
+        <v>683.1426636655142</v>
       </c>
       <c r="O22" t="n">
-        <v>939.5504151240293</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P22" t="n">
-        <v>1059.426580900608</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.202162476282</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R22" t="n">
-        <v>1098.202162476282</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S22" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918818</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U22" t="n">
-        <v>769.2584451161911</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194237</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330097</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984012</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974529</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C23" t="n">
         <v>1352.560722599515</v>
@@ -5972,16 +5972,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G23" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924217</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6020,7 +6020,7 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U23" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
         <v>2644.789635573994</v>
@@ -6029,7 +6029,7 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X23" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
         <v>1882.877496443165</v>
@@ -6066,16 +6066,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K24" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L24" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M24" t="n">
-        <v>1223.947919817482</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N24" t="n">
         <v>1223.947919817482</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.931979188559</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369567</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D25" t="n">
-        <v>173.44722152188</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634911</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G25" t="n">
-        <v>87.3386307407266</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462911</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
@@ -6154,43 +6154,43 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M25" t="n">
-        <v>494.3733870261212</v>
+        <v>621.3883893133163</v>
       </c>
       <c r="N25" t="n">
-        <v>677.5630210573304</v>
+        <v>804.5780233445255</v>
       </c>
       <c r="O25" t="n">
-        <v>840.2677880990384</v>
+        <v>967.2827903862335</v>
       </c>
       <c r="P25" t="n">
-        <v>1089.200323498046</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q25" t="n">
-        <v>1092.622519868097</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R25" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S25" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918799</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U25" t="n">
-        <v>769.2584451161894</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194221</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330083</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856983999</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974517</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C26" t="n">
         <v>1584.222786214271</v>
       </c>
       <c r="D26" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218604</v>
+        <v>986.0794951218602</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390263</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142178</v>
       </c>
       <c r="H26" t="n">
-        <v>116.761294567897</v>
+        <v>116.7612945678971</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
-        <v>218.0146318563783</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K26" t="n">
-        <v>576.9969878838401</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L26" t="n">
-        <v>1100.28679488479</v>
+        <v>1349.471364791089</v>
       </c>
       <c r="M26" t="n">
-        <v>1739.339056658944</v>
+        <v>1988.523626565243</v>
       </c>
       <c r="N26" t="n">
-        <v>2360.20170202598</v>
+        <v>2609.386271932278</v>
       </c>
       <c r="O26" t="n">
-        <v>2893.292664647881</v>
+        <v>3079.395388107029</v>
       </c>
       <c r="P26" t="n">
-        <v>3334.531518508977</v>
+        <v>3427.582880238551</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.428440379499</v>
+        <v>3612.4284403795</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377512</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605751</v>
+        <v>3596.670073605752</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452356</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174143</v>
+        <v>3307.298104174145</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y26" t="n">
-        <v>2188.011670848361</v>
+        <v>2188.011670848362</v>
       </c>
     </row>
     <row r="27">
@@ -6297,22 +6297,22 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H27" t="n">
-        <v>122.7521129356386</v>
+        <v>122.7521129356387</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J27" t="n">
-        <v>73.36485894755025</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K27" t="n">
-        <v>393.1040050097767</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L27" t="n">
-        <v>876.6700909080899</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
-        <v>876.6700909080899</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="N27" t="n">
         <v>1235.193651060917</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985351</v>
+        <v>504.330098198535</v>
       </c>
       <c r="C28" t="n">
-        <v>429.065661551713</v>
+        <v>429.0656615517126</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414161</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878066</v>
+        <v>307.7550988878065</v>
       </c>
       <c r="F28" t="n">
-        <v>245.369845387968</v>
+        <v>245.3698453879678</v>
       </c>
       <c r="G28" t="n">
-        <v>172.056472774602</v>
+        <v>172.0564727746017</v>
       </c>
       <c r="H28" t="n">
         <v>111.5186030232841</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796862</v>
+        <v>136.642478079686</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192012</v>
+        <v>311.5288809192011</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225741</v>
+        <v>568.7078825225742</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904113</v>
+        <v>848.0508225904116</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
@@ -6424,10 +6424,10 @@
         <v>861.908456428645</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988164</v>
+        <v>722.7688154988165</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.597435602648</v>
+        <v>594.5974356026481</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218604</v>
+        <v>986.0794951218602</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390263</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142178</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6461,25 +6461,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>311.0659935859517</v>
+        <v>218.0146318563784</v>
       </c>
       <c r="K29" t="n">
-        <v>763.0997113429868</v>
+        <v>576.9969878838402</v>
       </c>
       <c r="L29" t="n">
-        <v>1349.471364791089</v>
+        <v>1100.286794884792</v>
       </c>
       <c r="M29" t="n">
-        <v>1988.523626565243</v>
+        <v>1739.339056658946</v>
       </c>
       <c r="N29" t="n">
-        <v>2609.386271932278</v>
+        <v>2360.201702025981</v>
       </c>
       <c r="O29" t="n">
-        <v>3079.395388107029</v>
+        <v>2893.292664647883</v>
       </c>
       <c r="P29" t="n">
-        <v>3427.582880238551</v>
+        <v>3334.531518508978</v>
       </c>
       <c r="Q29" t="n">
         <v>3612.4284403795</v>
@@ -6491,22 +6491,22 @@
         <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174143</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.13197616485</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.011670848361</v>
+        <v>2188.01167084836</v>
       </c>
     </row>
     <row r="30">
@@ -6549,7 +6549,7 @@
         <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>989.7850731278173</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="N30" t="n">
         <v>1235.193651060917</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985352</v>
+        <v>504.3300981985348</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517128</v>
+        <v>429.0656615517124</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414156</v>
+        <v>368.3732297414157</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878068</v>
+        <v>307.7550988878065</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879681</v>
+        <v>245.3698453879678</v>
       </c>
       <c r="G31" t="n">
-        <v>172.056472774602</v>
+        <v>172.0564727746017</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232843</v>
+        <v>111.518603023284</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796861</v>
+        <v>136.6424780796859</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192012</v>
+        <v>311.5288809192008</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225741</v>
+        <v>568.7078825225739</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904115</v>
+        <v>848.0508225904113</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
@@ -6643,7 +6643,7 @@
         <v>1689.449032728251</v>
       </c>
       <c r="R31" t="n">
-        <v>1660.488724648017</v>
+        <v>1660.488724648016</v>
       </c>
       <c r="S31" t="n">
         <v>1552.613322117754</v>
@@ -6655,16 +6655,16 @@
         <v>1221.336841102266</v>
       </c>
       <c r="V31" t="n">
-        <v>1050.298177210279</v>
+        <v>1050.298177210278</v>
       </c>
       <c r="W31" t="n">
-        <v>861.908456428645</v>
+        <v>861.9084564286445</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988165</v>
+        <v>722.7688154988159</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026481</v>
+        <v>594.5974356026476</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222131</v>
+        <v>1743.79887591859</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654426</v>
+        <v>1464.542485303045</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800458</v>
+        <v>1193.020467401238</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463668</v>
+        <v>904.3560533993077</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057091</v>
+        <v>601.3807258108106</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230769</v>
+        <v>302.137081180339</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189323</v>
+        <v>91.97314162835507</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076164</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495898</v>
+        <v>212.2049085111732</v>
       </c>
       <c r="K32" t="n">
-        <v>573.1796771770516</v>
+        <v>571.1872645386351</v>
       </c>
       <c r="L32" t="n">
-        <v>1066.49996889558</v>
+        <v>1064.507556257164</v>
       </c>
       <c r="M32" t="n">
-        <v>1612.500868940161</v>
+        <v>1610.508456301744</v>
       </c>
       <c r="N32" t="n">
-        <v>2245.585245304693</v>
+        <v>2249.971860514189</v>
       </c>
       <c r="O32" t="n">
-        <v>2790.897938924092</v>
+        <v>2690.011461406518</v>
       </c>
       <c r="P32" t="n">
-        <v>3244.358523782684</v>
+        <v>3149.851074113023</v>
       </c>
       <c r="Q32" t="n">
-        <v>3477.377412038082</v>
+        <v>3334.696634253971</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038082</v>
+        <v>3377.756780117255</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908497</v>
+        <v>3325.162335939831</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397278</v>
+        <v>3215.580844380773</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761242</v>
+        <v>3073.747225696897</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394124</v>
+        <v>2845.55952728194</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291776</v>
+        <v>2588.479603131753</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154198</v>
+        <v>2312.946108946335</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004163</v>
+        <v>2030.374510748461</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423761</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024683</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239486</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732529</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563847</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.9348022288501</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076164</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="J33" t="n">
-        <v>182.662530460489</v>
+        <v>180.6701178220725</v>
       </c>
       <c r="K33" t="n">
-        <v>502.4016765227154</v>
+        <v>500.4092638842989</v>
       </c>
       <c r="L33" t="n">
-        <v>985.9677624210287</v>
+        <v>983.9753497826122</v>
       </c>
       <c r="M33" t="n">
-        <v>985.9677624210287</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2151.525579023091</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965132</v>
+        <v>365.6713676929717</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918669</v>
+        <v>309.3853606404862</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237462</v>
+        <v>267.6713584245261</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123132</v>
+        <v>226.0316571652539</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546507</v>
+        <v>182.6248332597521</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834607</v>
+        <v>128.2898902407228</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431922</v>
+        <v>86.730450083742</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076164</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="J34" t="n">
-        <v>69.54754824076164</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="K34" t="n">
-        <v>245.4092634067526</v>
+        <v>225.4160927170971</v>
       </c>
       <c r="L34" t="n">
-        <v>514.8099960076225</v>
+        <v>501.1958531658797</v>
       </c>
       <c r="M34" t="n">
-        <v>701.1015743458865</v>
+        <v>799.1395520791266</v>
       </c>
       <c r="N34" t="n">
-        <v>884.2912083770957</v>
+        <v>1093.981306685319</v>
       </c>
       <c r="O34" t="n">
-        <v>1152.269068145874</v>
+        <v>1256.686073727027</v>
       </c>
       <c r="P34" t="n">
-        <v>1377.418326649523</v>
+        <v>1376.562239503605</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746644</v>
+        <v>1379.984435873656</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308585</v>
+        <v>1370.002557387758</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420499</v>
+        <v>1281.105584451833</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518098</v>
+        <v>1159.305643501592</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689364</v>
+        <v>987.7859626250186</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395522</v>
+        <v>835.725728327368</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000944</v>
+        <v>666.3144371400708</v>
       </c>
       <c r="X34" t="n">
-        <v>606.722570012442</v>
+        <v>546.1532258045792</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584499</v>
+        <v>436.9602755027478</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803425</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6959,10 +6959,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R35" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T35" t="n">
         <v>2979.295701071061</v>
@@ -6971,16 +6971,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y35" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="36">
@@ -7023,7 +7023,7 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>978.5393418843826</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N36" t="n">
         <v>1223.947919817482</v>
@@ -7087,34 +7087,34 @@
         <v>87.33863074072673</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
-        <v>243.2367958390485</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>407.3644357128483</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M37" t="n">
-        <v>629.0093992567336</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N37" t="n">
-        <v>812.1990332879427</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O37" t="n">
-        <v>974.9038003296507</v>
+        <v>967.2827903862335</v>
       </c>
       <c r="P37" t="n">
-        <v>1094.779966106229</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R37" t="n">
         <v>1098.20216247628</v>
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C38" t="n">
         <v>1352.560722599515</v>
       </c>
       <c r="D38" t="n">
-        <v>1098.796330498591</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975434</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099294</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G38" t="n">
-        <v>261.185821680341</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792923994</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7202,10 +7202,10 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T38" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U38" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
         <v>2644.789635573994</v>
@@ -7214,10 +7214,10 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X38" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
-        <v>1882.877496443164</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="39">
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885604</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C40" t="n">
-        <v>197.403597936958</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D40" t="n">
-        <v>173.447221521881</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634919</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588731</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072701</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462931</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
@@ -7339,43 +7339,43 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>623.4297566485495</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N40" t="n">
-        <v>812.199033287945</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O40" t="n">
-        <v>974.903800329653</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P40" t="n">
-        <v>1094.779966106232</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q40" t="n">
-        <v>1098.202162476282</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R40" t="n">
-        <v>1098.202162476282</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S40" t="n">
-        <v>1027.06281534124</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918825</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U40" t="n">
-        <v>769.2584451161918</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194243</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330103</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984017</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974534</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="41">
@@ -7385,31 +7385,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C41" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D41" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G41" t="n">
-        <v>261.1858216803425</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924229</v>
       </c>
       <c r="I41" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411555</v>
       </c>
       <c r="J41" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129437</v>
       </c>
       <c r="K41" t="n">
         <v>565.7512566404055</v>
@@ -7433,28 +7433,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R41" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S41" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T41" t="n">
         <v>2979.295701071061</v>
       </c>
       <c r="U41" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V41" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W41" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X41" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y41" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="42">
@@ -7482,22 +7482,22 @@
         <v>199.803798091603</v>
       </c>
       <c r="H42" t="n">
-        <v>111.5063816922039</v>
+        <v>111.506381692204</v>
       </c>
       <c r="I42" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411555</v>
       </c>
       <c r="J42" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411555</v>
       </c>
       <c r="K42" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L42" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M42" t="n">
-        <v>978.5393418843826</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N42" t="n">
         <v>1223.947919817482</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072673</v>
+        <v>87.3386307407268</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462922</v>
       </c>
       <c r="I43" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411555</v>
       </c>
       <c r="J43" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411555</v>
       </c>
       <c r="K43" t="n">
-        <v>149.5338114222412</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L43" t="n">
-        <v>313.661451296041</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M43" t="n">
-        <v>629.0093992567336</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N43" t="n">
-        <v>812.1990332879427</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O43" t="n">
-        <v>974.9038003296507</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P43" t="n">
-        <v>1094.779966106229</v>
+        <v>965.7235964838011</v>
       </c>
       <c r="Q43" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S43" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T43" t="n">
-        <v>923.0205001918806</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U43" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="44">
@@ -7640,7 +7640,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7673,7 +7673,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T44" t="n">
         <v>2979.295701071061</v>
@@ -7682,7 +7682,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V44" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W44" t="n">
         <v>2405.467337224691</v>
@@ -7725,25 +7725,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L45" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>1173.45686322911</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N45" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O45" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P45" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462917</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
@@ -7807,49 +7807,49 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K46" t="n">
-        <v>149.5338114222413</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L46" t="n">
-        <v>442.7178209184696</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M46" t="n">
-        <v>629.0093992567336</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N46" t="n">
-        <v>812.1990332879427</v>
+        <v>683.1426636655146</v>
       </c>
       <c r="O46" t="n">
-        <v>974.9038003296507</v>
+        <v>845.8474307072227</v>
       </c>
       <c r="P46" t="n">
-        <v>1094.779966106229</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S46" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T46" t="n">
-        <v>923.0205001918806</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U46" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7979,22 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L2" t="n">
-        <v>633.0044694637904</v>
+        <v>559.6461357681367</v>
       </c>
       <c r="M2" t="n">
         <v>149.7250515977273</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920146</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
         <v>331.2113854294513</v>
@@ -8055,7 +8055,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
         <v>412.5657697396227</v>
@@ -8067,16 +8067,16 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>144.3219646728116</v>
+        <v>399.644649999579</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431194</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8213,22 +8213,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
-        <v>222.9166707919253</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321646</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>546.218845166817</v>
       </c>
       <c r="O5" t="n">
-        <v>149.5638374240964</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
         <v>502.0059847475129</v>
@@ -8301,19 +8301,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>92.38712204931191</v>
+        <v>292.4021013970198</v>
       </c>
       <c r="N6" t="n">
-        <v>554.0405189317991</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431194</v>
       </c>
       <c r="P6" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8453,7 +8453,7 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
-        <v>457.3649271011935</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
         <v>651.5514946987026</v>
@@ -8462,16 +8462,16 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
-        <v>682.2612020826953</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O8" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.4986984183922</v>
+        <v>277.6349551468923</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8538,10 +8538,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>683.7992483186069</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N9" t="n">
-        <v>301.5486891608486</v>
+        <v>656.228399718133</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
@@ -8550,7 +8550,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8705,7 +8705,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P11" t="n">
-        <v>502.0059847475131</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q11" t="n">
         <v>331.2113854294513</v>
@@ -8775,16 +8775,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>726.4998994499999</v>
+        <v>577.006990218999</v>
       </c>
       <c r="N12" t="n">
-        <v>345.5977578821532</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
         <v>90.98815315591399</v>
@@ -9015,10 +9015,10 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>747.7741039759435</v>
+        <v>459.8553156798577</v>
       </c>
       <c r="O15" t="n">
-        <v>326.5064297756122</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
         <v>87.08336481931465</v>
@@ -9240,7 +9240,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
         <v>412.5657697396227</v>
@@ -9252,7 +9252,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N18" t="n">
-        <v>333.2595653118431</v>
+        <v>684.2495388215582</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
@@ -9261,7 +9261,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9416,7 +9416,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P20" t="n">
-        <v>502.0059847475129</v>
+        <v>502.0059847475136</v>
       </c>
       <c r="Q20" t="n">
         <v>331.2113854294513</v>
@@ -9477,7 +9477,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K21" t="n">
         <v>412.5657697396227</v>
@@ -9486,10 +9486,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>92.38712204931191</v>
+        <v>454.5321323046928</v>
       </c>
       <c r="N21" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9714,7 +9714,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
         <v>412.5657697396227</v>
@@ -9723,10 +9723,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>340.2745745069883</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N24" t="n">
-        <v>85.37211285416666</v>
+        <v>447.5171231095475</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -9951,7 +9951,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
         <v>412.5657697396227</v>
@@ -9960,10 +9960,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>92.38712204931191</v>
+        <v>340.274574506988</v>
       </c>
       <c r="N27" t="n">
-        <v>447.5171231095471</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -10197,10 +10197,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>92.38712204931191</v>
+        <v>340.274574506988</v>
       </c>
       <c r="N30" t="n">
-        <v>333.2595653118427</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
@@ -10434,10 +10434,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069887</v>
       </c>
       <c r="N33" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10671,10 +10671,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N36" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -11136,7 +11136,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
         <v>412.5657697396227</v>
@@ -11145,10 +11145,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>92.38712204931191</v>
+        <v>454.5321323046928</v>
       </c>
       <c r="N42" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11373,19 +11373,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N45" t="n">
-        <v>373.1055958271594</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
@@ -11394,7 +11394,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23261,10 +23261,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>310.508405100767</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>327.479377239889</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>100.388826550341</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>18.25105077546995</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,19 +23306,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>93.77010711362803</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750154</v>
+        <v>182.1168898750155</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>267.6074288087849</v>
       </c>
       <c r="W11" t="n">
-        <v>296.2107322866635</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>16.78924785626447</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>82.9249116246576</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>95.493200966817</v>
       </c>
       <c r="H13" t="n">
-        <v>82.845453133389</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>60.68516871456097</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,10 +23467,10 @@
         <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
-        <v>9.924565073582405</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>211.5060914457861</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23492,13 +23492,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.4114858595509</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>65.87543334372791</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,22 +23543,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>93.77010711362803</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>104.5911416331224</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866634</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>267.6026356665716</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23653,10 +23653,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>97.42475435993876</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>82.99846957177849</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,7 +23665,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681693</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901682</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>27.01918025522265</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>211.5060914457861</v>
+        <v>205.1789158151272</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>160.6612066001147</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23987,7 +23987,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>-1.125499693443999e-12</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24023,7 +24023,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>2.476099325576797e-12</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -25919,7 +25919,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>-4.973799150320701e-13</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>797167.7689312901</v>
+        <v>796566.2213175298</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>797167.7689312901</v>
+        <v>796566.2213175298</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>711052.3867092357</v>
+        <v>711052.3867092354</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>801236.9517857472</v>
+        <v>801236.9517857474</v>
       </c>
     </row>
     <row r="9">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>801236.9517857474</v>
+        <v>801236.9517857473</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26314,46 @@
         <v>486896.8808520634</v>
       </c>
       <c r="C2" t="n">
-        <v>486896.8808520635</v>
+        <v>486896.8808520636</v>
       </c>
       <c r="D2" t="n">
         <v>486896.8808520635</v>
       </c>
       <c r="E2" t="n">
-        <v>430269.3632458818</v>
+        <v>430269.3632458814</v>
       </c>
       <c r="F2" t="n">
-        <v>430269.3632458819</v>
+        <v>430269.3632458815</v>
       </c>
       <c r="G2" t="n">
+        <v>486896.8808520627</v>
+      </c>
+      <c r="H2" t="n">
         <v>486896.8808520629</v>
       </c>
-      <c r="H2" t="n">
-        <v>486896.8808520628</v>
-      </c>
       <c r="I2" t="n">
-        <v>486896.8808520628</v>
+        <v>486896.8808520627</v>
       </c>
       <c r="J2" t="n">
-        <v>486896.8808520632</v>
+        <v>486896.8808520633</v>
       </c>
       <c r="K2" t="n">
-        <v>486896.8808520634</v>
+        <v>486896.8808520633</v>
       </c>
       <c r="L2" t="n">
-        <v>486896.8808520632</v>
+        <v>486896.8808520625</v>
       </c>
       <c r="M2" t="n">
         <v>486896.8808520627</v>
       </c>
       <c r="N2" t="n">
-        <v>486896.8808520629</v>
+        <v>486896.8808520627</v>
       </c>
       <c r="O2" t="n">
-        <v>486896.8808520625</v>
+        <v>486896.8808520627</v>
       </c>
       <c r="P2" t="n">
-        <v>486896.8808520626</v>
+        <v>486896.8808520628</v>
       </c>
     </row>
     <row r="3">
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.948291856</v>
+        <v>173858.6570340551</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062183</v>
+        <v>22558.42953401351</v>
       </c>
       <c r="E3" t="n">
-        <v>112122.5614740446</v>
+        <v>112122.5614740445</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668185</v>
+        <v>47425.32553668198</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.13686837721616e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945026</v>
+        <v>200285.8640399294</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728539</v>
+        <v>62456.24177539678</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962298</v>
+        <v>43252.52447081119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277131</v>
+        <v>27767.69404277117</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,37 +26415,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188945.5063541666</v>
+        <v>195056.1330166296</v>
       </c>
       <c r="C4" t="n">
-        <v>188945.5063541666</v>
+        <v>195056.1330166296</v>
       </c>
       <c r="D4" t="n">
         <v>177238.0115641587</v>
       </c>
       <c r="E4" t="n">
-        <v>99893.08150805105</v>
+        <v>99893.08150805101</v>
       </c>
       <c r="F4" t="n">
-        <v>99893.08150805107</v>
+        <v>99893.08150805101</v>
       </c>
       <c r="G4" t="n">
-        <v>147651.9979996331</v>
+        <v>147651.9979996332</v>
       </c>
       <c r="H4" t="n">
-        <v>147651.9979996331</v>
+        <v>147651.9979996332</v>
       </c>
       <c r="I4" t="n">
         <v>147651.9979996332</v>
       </c>
       <c r="J4" t="n">
+        <v>148402.4904640164</v>
+      </c>
+      <c r="K4" t="n">
         <v>148402.4904640163</v>
       </c>
-      <c r="K4" t="n">
-        <v>148402.4904640164</v>
-      </c>
       <c r="L4" t="n">
-        <v>148146.916563533</v>
+        <v>148013.5219544782</v>
       </c>
       <c r="M4" t="n">
         <v>147651.9979996332</v>
@@ -26454,7 +26454,7 @@
         <v>147651.9979996332</v>
       </c>
       <c r="O4" t="n">
-        <v>147651.9979996332</v>
+        <v>147651.9979996333</v>
       </c>
       <c r="P4" t="n">
         <v>147651.9979996332</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001379</v>
+        <v>65170.06753481721</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001379</v>
+        <v>65170.06753481721</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26482,10 +26482,10 @@
         <v>53186.01969984052</v>
       </c>
       <c r="G5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="I5" t="n">
         <v>58169.76931551966</v>
@@ -26497,16 +26497,16 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.7362917385</v>
+        <v>60823.19813315423</v>
       </c>
       <c r="M5" t="n">
+        <v>58169.76931551967</v>
+      </c>
+      <c r="N5" t="n">
         <v>58169.76931551966</v>
       </c>
-      <c r="N5" t="n">
-        <v>58169.76931551965</v>
-      </c>
       <c r="O5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551968</v>
       </c>
       <c r="P5" t="n">
         <v>58169.76931551966</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>49062.12506602696</v>
+        <v>52812.02326656153</v>
       </c>
       <c r="C6" t="n">
-        <v>231267.0733578831</v>
+        <v>226670.6803006168</v>
       </c>
       <c r="D6" t="n">
-        <v>225251.2717001098</v>
+        <v>217514.9824767182</v>
       </c>
       <c r="E6" t="n">
-        <v>165067.7005639457</v>
+        <v>164857.9690172558</v>
       </c>
       <c r="F6" t="n">
-        <v>277190.2620379903</v>
+        <v>276980.5304913003</v>
       </c>
       <c r="G6" t="n">
-        <v>233649.7880002282</v>
+        <v>233649.7880002278</v>
       </c>
       <c r="H6" t="n">
         <v>281075.11353691</v>
       </c>
       <c r="I6" t="n">
-        <v>281075.1135369097</v>
+        <v>281075.1135369098</v>
       </c>
       <c r="J6" t="n">
-        <v>68033.19593962486</v>
+        <v>74549.4810941981</v>
       </c>
       <c r="K6" t="n">
-        <v>274835.3451341276</v>
+        <v>274835.3451341275</v>
       </c>
       <c r="L6" t="n">
-        <v>219652.7561995063</v>
+        <v>215603.9189890332</v>
       </c>
       <c r="M6" t="n">
-        <v>238874.2840772868</v>
+        <v>237822.5890660986</v>
       </c>
       <c r="N6" t="n">
-        <v>281075.11353691</v>
+        <v>281075.1135369098</v>
       </c>
       <c r="O6" t="n">
-        <v>253307.4194941384</v>
+        <v>253307.4194941386</v>
       </c>
       <c r="P6" t="n">
-        <v>281075.1135369097</v>
+        <v>281075.1135369099</v>
       </c>
     </row>
   </sheetData>
@@ -26692,34 +26692,34 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="G2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I2" t="n">
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K2" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
       </c>
       <c r="N2" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344374</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344374</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26805,28 +26805,28 @@
         <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="I4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.060736844378</v>
+        <v>917.0607368443783</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443782</v>
+        <v>917.0607368443783</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095205</v>
+        <v>844.4391950293137</v>
       </c>
       <c r="M4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="N4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="O4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014443</v>
       </c>
       <c r="P4" t="n">
         <v>776.4890963014441</v>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085231</v>
+        <v>59.28165692085247</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1.4210854715202e-13</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.709617553464</v>
+        <v>34.70961755346399</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660673</v>
+        <v>78.07030221924597</v>
       </c>
       <c r="M2" t="n">
-        <v>24.0235120155135</v>
+        <v>17.58004954287442</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346414</v>
+        <v>34.70961755346396</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344374</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485765</v>
+        <v>72.62154181506457</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773713</v>
+        <v>659.3622249971647</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407254</v>
+        <v>117.1268713042795</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="K2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085231</v>
+        <v>59.28165692085247</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1.4210854715202e-13</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.709617553464</v>
+        <v>34.70961755346399</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344374</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485765</v>
+        <v>72.62154181506457</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>120.5283864779018</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>186.004363232682</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,19 +27424,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27509,7 +27509,7 @@
         <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>27.91849938626865</v>
+        <v>124.5704364758558</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27537,28 +27537,28 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>53.73337658004162</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27588,10 +27588,10 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>166.9009441834127</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
@@ -27603,7 +27603,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>389.2437464820987</v>
@@ -27625,16 +27625,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>222.1750374446362</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,19 +27661,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>274.1106259898014</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27746,7 +27746,7 @@
         <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>27.91849938626865</v>
+        <v>124.5704364758558</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27780,16 +27780,16 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>131.7634811092929</v>
@@ -27831,16 +27831,16 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>104.0045570257511</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>250.0552430750601</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27853,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>173.4182059935763</v>
       </c>
       <c r="F8" t="n">
-        <v>300.5303327789761</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,16 +27898,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -28062,10 +28062,10 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>167.3303626133475</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>165.708020294746</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,7 +28074,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>220.8809405715231</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
         <v>30.07448747215907</v>
@@ -28761,34 +28761,34 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>5.636002634530442</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>130.3599693155843</v>
+        <v>128.2979821082778</v>
       </c>
       <c r="R19" t="n">
-        <v>122.6619794737488</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="S19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="21">
@@ -28956,31 +28956,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
-        <v>130.3599693155843</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -28992,40 +28992,40 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>5.636002634529035</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>35.71049010668958</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="23">
@@ -29226,7 +29226,7 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -29235,13 +29235,13 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>128.2979821082768</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L26" t="n">
-        <v>30.27223765901135</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O26" t="n">
-        <v>93.99127447431648</v>
+        <v>30.27223765901266</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431648</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431648</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="29">
@@ -29533,13 +29533,13 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>93.99127447431646</v>
+        <v>30.2722376590126</v>
       </c>
       <c r="M29" t="n">
         <v>93.99127447431646</v>
@@ -29548,13 +29548,13 @@
         <v>93.99127447431646</v>
       </c>
       <c r="O29" t="n">
-        <v>30.27223765901266</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R29" t="n">
         <v>93.99127447431646</v>
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29782,40 +29782,40 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="O32" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Q32" t="n">
-        <v>48.65992738833324</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>37.61298457733328</v>
+        <v>81.10808140893292</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="J34" t="n">
         <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
-        <v>94.97643844045362</v>
+        <v>76.79385455031328</v>
       </c>
       <c r="L34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>112.77991977271</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>112.77991977271</v>
       </c>
       <c r="O34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
     </row>
     <row r="35">
@@ -30165,31 +30165,31 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>128.2979821082778</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>35.71049010668816</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C38" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D38" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E38" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F38" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G38" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H38" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I38" t="n">
-        <v>130.3599693155867</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T38" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U38" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V38" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W38" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X38" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y38" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="39">
@@ -30378,28 +30378,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C40" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D40" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E40" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F40" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G40" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H40" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I40" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
         <v>30.07448747215907</v>
@@ -30411,10 +30411,10 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>130.3599693155842</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>5.636002634531565</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -30423,31 +30423,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>128.2979821082778</v>
       </c>
       <c r="R40" t="n">
-        <v>122.6619794737488</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="S40" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T40" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U40" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V40" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W40" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X40" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y40" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="41">
@@ -30505,7 +30505,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>37.61298457733328</v>
+        <v>37.6129845773342</v>
       </c>
       <c r="S41" t="n">
         <v>130.3599693155844</v>
@@ -30642,25 +30642,25 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K43" t="n">
-        <v>5.636002634529092</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
       </c>
       <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5.636002634529405</v>
+      </c>
+      <c r="Q43" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>122.6619794737488</v>
@@ -30879,22 +30879,22 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K46" t="n">
-        <v>5.636002634529177</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>5.63600263452949</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -34699,22 +34699,22 @@
         <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>479.7562997332988</v>
+        <v>406.3979660376449</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
         <v>186.7126870110591</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>322.9688344062893</v>
@@ -34787,16 +34787,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>58.94985181864499</v>
+        <v>314.2725371454123</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,22 +34933,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>79.85826761268792</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344374</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>397.1003538290329</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
         <v>351.7045375065877</v>
@@ -35021,19 +35021,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>200.0149793477079</v>
       </c>
       <c r="N6" t="n">
-        <v>468.6684060776324</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,7 +35173,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>314.3065239219562</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
         <v>498.303324968211</v>
@@ -35182,16 +35182,16 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
-        <v>533.1427107449111</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>133.1362567285001</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35258,10 +35258,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>216.1765763066819</v>
+        <v>570.8562868639664</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
@@ -35270,7 +35270,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35425,7 +35425,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P11" t="n">
-        <v>351.7045375065879</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q11" t="n">
         <v>186.7126870110591</v>
@@ -35495,16 +35495,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>634.1127774006881</v>
+        <v>484.6198681696871</v>
       </c>
       <c r="N12" t="n">
-        <v>260.2256450279866</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257288</v>
+        <v>41.00382492257284</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
@@ -35586,7 +35586,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488444</v>
+        <v>74.53507640488439</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35735,10 +35735,10 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
-        <v>662.4019911217769</v>
+        <v>374.483202825691</v>
       </c>
       <c r="O15" t="n">
-        <v>233.8188708867233</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257291</v>
+        <v>41.00382492257284</v>
       </c>
       <c r="K16" t="n">
-        <v>153.739970081542</v>
+        <v>153.7399700815419</v>
       </c>
       <c r="L16" t="n">
-        <v>236.863807216752</v>
+        <v>236.8638072167519</v>
       </c>
       <c r="M16" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N16" t="n">
-        <v>256.1183467696908</v>
+        <v>256.1183467696907</v>
       </c>
       <c r="O16" t="n">
-        <v>235.4265619318109</v>
+        <v>235.4265619318108</v>
       </c>
       <c r="P16" t="n">
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488446</v>
+        <v>74.53507640488439</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>322.9688344062893</v>
@@ -35972,7 +35972,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>247.8874524576764</v>
+        <v>598.8774259673916</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
@@ -35981,7 +35981,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36057,13 +36057,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
-        <v>126.7230387724886</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
-        <v>133.8167333257368</v>
+        <v>131.7547461184303</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36136,7 +36136,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P20" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065884</v>
       </c>
       <c r="Q20" t="n">
         <v>186.7126870110591</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>322.9688344062893</v>
@@ -36206,10 +36206,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="N21" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>100.2854818434252</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>82.66165768680997</v>
@@ -36288,16 +36288,16 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N22" t="n">
-        <v>185.0400343749588</v>
+        <v>190.6760370094878</v>
       </c>
       <c r="O22" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526632</v>
       </c>
       <c r="P22" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.16725411684206</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>322.9688344062893</v>
@@ -36443,10 +36443,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
@@ -36522,7 +36522,7 @@
         <v>165.78549482202</v>
       </c>
       <c r="M25" t="n">
-        <v>188.1733114527919</v>
+        <v>316.4712935610698</v>
       </c>
       <c r="N25" t="n">
         <v>185.0400343749588</v>
@@ -36531,13 +36531,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
-        <v>251.4470054535426</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>5.636002634527946</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,13 +36592,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>146.110881726089</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K26" t="n">
-        <v>362.6084404317796</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L26" t="n">
-        <v>528.5755626272223</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
         <v>645.507335125408</v>
@@ -36607,16 +36607,16 @@
         <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
-        <v>538.4757198201028</v>
+        <v>474.756683004799</v>
       </c>
       <c r="P26" t="n">
-        <v>445.6958119809042</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q26" t="n">
-        <v>280.7039614853756</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R26" t="n">
-        <v>56.3782898969832</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
         <v>322.9688344062893</v>
@@ -36680,10 +36680,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="N27" t="n">
-        <v>362.1450102553805</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215741</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
@@ -36768,10 +36768,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122747</v>
+        <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446897</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,13 +36829,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>240.1021562004054</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K29" t="n">
-        <v>456.5997149060961</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L29" t="n">
-        <v>592.2945994425274</v>
+        <v>528.5755626272236</v>
       </c>
       <c r="M29" t="n">
         <v>645.507335125408</v>
@@ -36844,13 +36844,13 @@
         <v>627.1339852192276</v>
       </c>
       <c r="O29" t="n">
-        <v>474.756683004799</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
-        <v>351.7045375065877</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
-        <v>186.7126870110591</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R29" t="n">
         <v>56.37828989698318</v>
@@ -36917,10 +36917,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="N30" t="n">
-        <v>247.8874524576761</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
@@ -37078,19 +37078,19 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>639.479168044982</v>
+        <v>645.9226305176211</v>
       </c>
       <c r="O32" t="n">
-        <v>550.8209026458571</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>458.0409948066586</v>
+        <v>464.4844572792977</v>
       </c>
       <c r="Q32" t="n">
-        <v>235.3726143993924</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>43.49509683159965</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,10 +37154,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>247.8874524576768</v>
       </c>
       <c r="N33" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37227,25 +37227,25 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>177.6380961272636</v>
+        <v>159.4555122371233</v>
       </c>
       <c r="L34" t="n">
-        <v>272.1219521220909</v>
+        <v>278.5654145947299</v>
       </c>
       <c r="M34" t="n">
-        <v>188.1733114527919</v>
+        <v>300.9532312255019</v>
       </c>
       <c r="N34" t="n">
-        <v>185.0400343749588</v>
+        <v>297.8199541476687</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371497</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P34" t="n">
-        <v>227.423493438029</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7932213102234</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37391,10 +37391,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N36" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>82.66165768680997</v>
@@ -37470,13 +37470,13 @@
         <v>165.78549482202</v>
       </c>
       <c r="M37" t="n">
-        <v>223.8838015594801</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
-        <v>164.3482495370789</v>
+        <v>292.6462316453567</v>
       </c>
       <c r="P37" t="n">
         <v>121.0870361379582</v>
@@ -37485,7 +37485,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37707,10 +37707,10 @@
         <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
-        <v>318.5332807683762</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N40" t="n">
-        <v>190.6760370094904</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
         <v>164.3482495370789</v>
@@ -37719,10 +37719,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.456764010152483</v>
+        <v>131.7547461184303</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37801,7 +37801,7 @@
         <v>186.7126870110591</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>9.186815169423518e-13</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>322.9688344062893</v>
@@ -37865,10 +37865,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="N42" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -37938,13 +37938,13 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>88.29766032133907</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L43" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M43" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N43" t="n">
         <v>185.0400343749588</v>
@@ -37953,10 +37953,10 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P43" t="n">
-        <v>121.0870361379582</v>
+        <v>126.7230387724876</v>
       </c>
       <c r="Q43" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257368</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38093,19 +38093,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N45" t="n">
-        <v>287.7334829729927</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
@@ -38114,7 +38114,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,22 +38175,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>88.29766032133915</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L46" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M46" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N46" t="n">
-        <v>185.0400343749588</v>
+        <v>190.6760370094883</v>
       </c>
       <c r="O46" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P46" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q46" t="n">
         <v>3.456764010152483</v>
